--- a/biology/Médecine/Bernadette_de_Gasquet/Bernadette_de_Gasquet.xlsx
+++ b/biology/Médecine/Bernadette_de_Gasquet/Bernadette_de_Gasquet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bernadette de Gasquet est médecin et professeur de yoga spécialisée dans les exercices des abdominaux et de la rééducation périnéale.
 </t>
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Études
-Après l'obtention d'une maitrise d'économie en 1969, elle se reconvertit en 1974 comme professeure de yoga puis obtient un doctorat de médecine à l'Université de Bobigny en 1993[réf. nécessaire][1].
-Carrière
-Dans un premier temps, elle essaie de mettre à profit ses connaissances dans la pratique du yoga pour aider les sages-femmes dans leur travail[2]. Elle fait ensuite des études de médecine, et essaie d'améliorer la prise en charge des femmes enceintes, s'opposant aux pratiques traditionnelles de la pratique de l'accouchement[3]. Elle écrit plusieurs ouvrages sur le périnée et les abdominaux ainsi qu'une méthode d'accouchement[1].
+          <t>Études</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après l'obtention d'une maitrise d'économie en 1969, elle se reconvertit en 1974 comme professeure de yoga puis obtient un doctorat de médecine à l'Université de Bobigny en 1993[réf. nécessaire].
 </t>
         </is>
       </c>
@@ -542,10 +557,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans un premier temps, elle essaie de mettre à profit ses connaissances dans la pratique du yoga pour aider les sages-femmes dans leur travail. Elle fait ensuite des études de médecine, et essaie d'améliorer la prise en charge des femmes enceintes, s'opposant aux pratiques traditionnelles de la pratique de l'accouchement. Elle écrit plusieurs ouvrages sur le périnée et les abdominaux ainsi qu'une méthode d'accouchement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bernadette_de_Gasquet</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bernadette_de_Gasquet</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pour en finir avec le mal de dos, Albin Michel, 2015
 Ma gym, avec une chaise, Marabout, 2013
@@ -559,15 +613,83 @@
 Baby sans blues : Guide pratique pour retrouver la forme après Bébé, Robert Jauze, 2005
 Bébé est là, vive maman, Robert Jauze, 2005
 Gym autour d'une chaise, Robert Jauze, 2004
-L'enfance abusée, Robert Jauze, 2002
-En collaboration
-Mon bébé n'aura pas la tête plate, avec T. Marck, Albin Michel, 2015
+L'enfance abusée, Robert Jauze, 2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bernadette_de_Gasquet</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bernadette_de_Gasquet</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>En collaboration</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Mon bébé n'aura pas la tête plate, avec T. Marck, Albin Michel, 2015
 Yoga sans dégâts, avec Jean-Paul Bouteloup, Marabout, 2015
 Mécanique et techniques obstétricales, dir. J.-P. Schaal, Sauramps, 2012
 La Naissance, dir. R. Frydman et M. Szejer, Albin Michel, 2010
-Le Crâne du nouveau-né, dir. R. Lalauze-Pol, Sauramps, 2009
-DVD
-L'Abdologie, la science des abdominaux, PLD, 2008
+Le Crâne du nouveau-né, dir. R. Lalauze-Pol, Sauramps, 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bernadette_de_Gasquet</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bernadette_de_Gasquet</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>DVD</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L'Abdologie, la science des abdominaux, PLD, 2008
 Positions d'accouchement, PLD, 2007
 Minitraumatismes quotidiens abdomino-périnéaux, 1995</t>
         </is>
